--- a/high-level-test-cases-instagram-mobile-app(Test).xlsx
+++ b/high-level-test-cases-instagram-mobile-app(Test).xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\SwTesting\mobile_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05BED52-AA4A-4599-8EE8-C3B2EA605894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92DE9E1-0BF1-4581-A7FA-8B93F080E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9E5D0CAE-EDEC-427C-A438-910C170CD468}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E5D0CAE-EDEC-427C-A438-910C170CD468}"/>
   </bookViews>
   <sheets>
     <sheet name="requirements analysis sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="FR1.Adding Post" sheetId="2" r:id="rId2"/>
+    <sheet name="FR2. Adding Story" sheetId="3" r:id="rId3"/>
+    <sheet name="FR3.Massaging" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="337">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -475,12 +477,6 @@
   </si>
   <si>
     <t>Verify adding a background color to a writen post</t>
-  </si>
-  <si>
-    <t>Verify to adding a post to created album</t>
-  </si>
-  <si>
-    <t>Verify to adding a post to new album</t>
   </si>
   <si>
     <t>Hallo my name is mostafa labib</t>
@@ -612,12 +608,598 @@
 3- allow Facebook to acces camera
 4- press post button                 </t>
   </si>
+  <si>
+    <t>the written post share with all user in Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on only me
+4- change audience to only me
+5- press post button                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on only me
+4- change audience to public
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>"Hallo my name is mostafa labib "</t>
+  </si>
+  <si>
+    <t>"Hallo my name is mostafa labib" + Selected emoji/s</t>
+  </si>
+  <si>
+    <t>the written post share with only me audience</t>
+  </si>
+  <si>
+    <t>Post shared only me can see it</t>
+  </si>
+  <si>
+    <t>Post shared as public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on only me
+4- change audience to Friends
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>the written post share with Friends  audience</t>
+  </si>
+  <si>
+    <t>the written post share with Friends audience except the pick user</t>
+  </si>
+  <si>
+    <t>Verify adding a post and set the visibility to friends except</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on only me
+4- press Friends excepts and pick someone 
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>Post shared only with Friends on facebook can see it</t>
+  </si>
+  <si>
+    <t>Post shared only with Friends on facebook except picked users</t>
+  </si>
+  <si>
+    <t>captured image via camera</t>
+  </si>
+  <si>
+    <t>The  captured images via camera are successfully posted on my profile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2-tap photo/video
+3- Tap camera icon
+4- capture photo
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>1- Go to the field of writing a post
+2- Write a text post
+3- Tap on photo/video
+4- Tap camera icon.
+5- capture video stream                           4- press post button</t>
+  </si>
+  <si>
+    <t>captured video via camera</t>
+  </si>
+  <si>
+    <t>The written post successfully posted and the captured video via camera successfully posted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on Feeling/activity
+4- pick activities 
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>"hallo my name is mostafa "+  feeling /activity</t>
+  </si>
+  <si>
+    <t>The written post successfully posted with feeling /activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on GIF
+4- pick emoji
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>"hallo my name is mostafa "+  GIF</t>
+  </si>
+  <si>
+    <t>The written post successfully posted with GIF</t>
+  </si>
+  <si>
+    <t>The post is successfully published on Facebook as well as Instagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on instagram option
+4- Enable sharing in instagram
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>'hallo my name is mostafa''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on Background color.
+4- pick background.
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>The written post successfully posted with picked background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on album
+4- added post to album
+5- press post button. </t>
+  </si>
+  <si>
+    <t>"hallo my name is mostafa"</t>
+  </si>
+  <si>
+    <t>The written post successfully posted in album</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on album
+4- create album and add post to album
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>The writtenpost successfully added to album</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap on photo/video
+4- pick photo
+5- press post button                 </t>
+  </si>
+  <si>
+    <t>"hallo my name is mostafa"+picked photo</t>
+  </si>
+  <si>
+    <t>The Written post successfully added and photo successufully posted</t>
+  </si>
+  <si>
+    <t>Adding Posts : Negative Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_032</t>
+  </si>
+  <si>
+    <t>1- Open application successfully
+2- Log in with valid username and password
+3- Home Page is opened</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_033</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_034</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_035</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_036</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_037</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_038</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_039</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_040</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_041</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_042</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_043</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_044</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_045</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_046</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_047</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_048</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_049</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADDPOST_GUI_050</t>
+  </si>
+  <si>
+    <t>Verify  adding a post to created album</t>
+  </si>
+  <si>
+    <t>Verify  adding a post to new album</t>
+  </si>
+  <si>
+    <t>Verify  adding low resolution (244*111)</t>
+  </si>
+  <si>
+    <t>Verify  adding high quality image</t>
+  </si>
+  <si>
+    <t>Verify adding corrupted image</t>
+  </si>
+  <si>
+    <t>create empty post.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a text post
+3- Tap post.            </t>
+  </si>
+  <si>
+    <t>Empty text</t>
+  </si>
+  <si>
+    <t>Clicking the post button is disabled</t>
+  </si>
+  <si>
+    <t>disabled Post button</t>
+  </si>
+  <si>
+    <t>create post with utf8 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- empty text
+3- Tap post.            </t>
+  </si>
+  <si>
+    <t>"Upset &gt;:O &gt;:-O &gt;:o &gt;:-o"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Written post successfully added </t>
+  </si>
+  <si>
+    <t>Verify adding post with super long paragraphs (more than 63206characters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a long paragraph text post
+3- Tap post.            </t>
+  </si>
+  <si>
+    <t>long paragraph</t>
+  </si>
+  <si>
+    <t>Error massage"A status can't be longer than 63,206 characters, but this one is 124,764 characters in length. Please make it a little shorter and try again."</t>
+  </si>
+  <si>
+    <t>Verify tagging every Facebook user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a post
+3- Tap tag people and tag every Facebook user.      
+3- Tap post.                </t>
+  </si>
+  <si>
+    <t>"hallo its my first post" + tag people</t>
+  </si>
+  <si>
+    <t>cannot tag non friends or not followers people</t>
+  </si>
+  <si>
+    <t>cannot post .</t>
+  </si>
+  <si>
+    <t>verify editing loaded image (by crop tool)</t>
+  </si>
+  <si>
+    <t>"hallo its my first post" + photo</t>
+  </si>
+  <si>
+    <t>Error massage"unable to crop photo"</t>
+  </si>
+  <si>
+    <t>Verify back to field of writing a post after Crop Error apper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a post
+3- Tap edit ,crop,crop hole image      
+4- Tap post.                </t>
+  </si>
+  <si>
+    <t>Back to field of writing a post</t>
+  </si>
+  <si>
+    <t>Loading Screen(waiting screen)</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>post cannot posted</t>
+  </si>
+  <si>
+    <t>Trying to search for a GIF while no internet connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a post
+3- tap GIF with no internet connection     
+4- Tap post.                </t>
+  </si>
+  <si>
+    <t>"hallo its my first post" + GIF</t>
+  </si>
+  <si>
+    <t>Error massage(no internet connection)</t>
+  </si>
+  <si>
+    <t>Verify trying to access camera while there is no permission for camra to be accesed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- Write a post
+3- tap photo/video -don’t allow acces camera    
+4- Tap post.                </t>
+  </si>
+  <si>
+    <t>Verify adding photo with live video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3- tap photo/video   
+4- Tap live video.
+5-Tap post   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">back to writing field </t>
+  </si>
+  <si>
+    <t>test photo,live video</t>
+  </si>
+  <si>
+    <t>live video button is unable</t>
+  </si>
+  <si>
+    <t>Verify continue posting after loosing internet connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-loosing internet connection
+4-Tap post   </t>
+  </si>
+  <si>
+    <t>"this my first post on Facebook"</t>
+  </si>
+  <si>
+    <t>The uploading should continue after the internet connection is back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when making a Friend post, an unfriend cannot view the post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when making a Friend except post,  the excepted friends cannot view the post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when making a Only me post, no one view the post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+4-Tap post   </t>
+  </si>
+  <si>
+    <t>UnFriends cannot View the post</t>
+  </si>
+  <si>
+    <t>The post should not be viewd by excepted friends users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-change Post audience to except Friend.
+4-write Friend name.
+5-Tap post   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify when making a Specific friends post, the other Facebook user cannot view the post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-change Post audience to Friend list.
+5-Tap post   </t>
+  </si>
+  <si>
+    <t>The post should not be viewd by public people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-change Post audience to only me.
+5-Tap post   </t>
+  </si>
+  <si>
+    <t>The post should not be viewd by all Facebook users</t>
+  </si>
+  <si>
+    <t>Verify adding multiple Feelings/activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-tap feelins/activity
+4-add another feeling/activity
+5-Tap post   </t>
+  </si>
+  <si>
+    <t>"this my first post on Facebook"+activity</t>
+  </si>
+  <si>
+    <t>post should posted with multiple activities</t>
+  </si>
+  <si>
+    <t>posted with last added activity</t>
+  </si>
+  <si>
+    <t>Facebook_adding_post_crop_image</t>
+  </si>
+  <si>
+    <t>Adding_post_add_multiple_activity</t>
+  </si>
+  <si>
+    <t>Verify tyring to check-in a location while denying access to location services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-tap check in
+4-don’t allow to acces location
+5-Tap post   </t>
+  </si>
+  <si>
+    <t>verify upload large video size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of writing a post
+2- write a post
+3-tap photo/video
+4-Tap post   </t>
+  </si>
+  <si>
+    <t>test video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the video post successfully posted  </t>
+  </si>
+  <si>
+    <t>Adding story</t>
+  </si>
+  <si>
+    <t>Adding story : GUI Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>FR 2: Add Story</t>
+  </si>
+  <si>
+    <t>Verify that the fonts, text color, and color coding in the Add Story screen is per standard</t>
+  </si>
+  <si>
+    <t>The fonts, text color, and color coding in the Add Story screen is per standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of adding story
+</t>
+  </si>
+  <si>
+    <t>Adding story : Postive Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_008</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_001</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_002</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_003</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_004</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_005</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_006</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_007</t>
+  </si>
+  <si>
+    <t>Postive</t>
+  </si>
+  <si>
+    <t>Massaging : Postive Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>Massaging : GUI Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_001</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_002</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_003</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_004</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_005</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_006</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_007</t>
+  </si>
+  <si>
+    <t>FACEBOOK_AMassaging_GUI_008</t>
+  </si>
+  <si>
+    <t>FR 2: Massaging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,14 +1243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
@@ -683,8 +1257,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +1300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,29 +1358,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -806,10 +1393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,32 +1402,145 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{59836AD7-D8A4-4FD3-AA49-382EEEC04C9C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F3369482-6A0B-4901-B0D6-F5E5BA13E1FF}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{3537DECF-92FF-43A1-B3E7-52292492EA52}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1156,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED464E4D-BCBA-41FD-9DCE-BBCDDD011EDF}">
   <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,290 +1867,302 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A29" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+    </row>
+    <row r="29" spans="1:1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A49" s="5" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="24"/>
+    </row>
+    <row r="49" spans="1:1" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="24" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="24" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1466,950 +2174,2947 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89162061-C779-4BAD-BDCB-CA5D57A1AEB3}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
     <col min="3" max="3" width="25.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="32.88671875" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.88671875" customWidth="1"/>
     <col min="10" max="10" width="20.109375" customWidth="1"/>
     <col min="11" max="11" width="26.21875" customWidth="1"/>
     <col min="12" max="12" width="28.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:17" ht="76.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="76.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="72" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:12" ht="57.6" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:17" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+    <row r="12" spans="1:12" ht="43.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" s="10" t="s">
+      <c r="K15" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
+      <c r="J16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="10" t="s">
+      <c r="B17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="J17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="10" t="s">
+      <c r="B18" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="J18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I18" s="10" t="s">
+      <c r="B19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="J19" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="I19" s="10" t="s">
+      <c r="B20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+      <c r="J24" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="10" t="s">
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="J25" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I21" s="10" t="s">
+      <c r="B26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="J26" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="10" t="s">
+      <c r="B27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="J36" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>73</v>
-      </c>
+      <c r="B37" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="40.200000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="158.4" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="4"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D58" s="4"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A14:K14"/>
+  <mergeCells count="4">
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A2:L3"/>
+    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A38:L38"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB0D1B6-9910-43A1-A0D0-6F3CD340DF4D}">
+  <dimension ref="A1:M41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L12" sqref="A1:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A13:L13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J10">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J7">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1454189A-B487-4D9F-B6F2-C3652E5B3573}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A13:L13"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J10">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J7">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/high-level-test-cases-instagram-mobile-app(Test).xlsx
+++ b/high-level-test-cases-instagram-mobile-app(Test).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\SwTesting\mobile_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92DE9E1-0BF1-4581-A7FA-8B93F080E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0DD949-3024-465D-AD44-D486BD1018DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E5D0CAE-EDEC-427C-A438-910C170CD468}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9E5D0CAE-EDEC-427C-A438-910C170CD468}"/>
   </bookViews>
   <sheets>
     <sheet name="requirements analysis sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="450">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -1193,6 +1193,404 @@
   </si>
   <si>
     <t>FR 2: Massaging</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_009</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_010</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_011</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_012</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_013</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_014</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_015</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_016</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_017</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_018</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_019</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_020</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_021</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_022</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_023</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_024</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_025</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_026</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_027</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_028</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_029</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_030</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_031</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_032</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_033</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_034</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_035</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify creating Text Story </t>
+  </si>
+  <si>
+    <t>Verify changing Text Story Font</t>
+  </si>
+  <si>
+    <t>Adding story : Negative Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_037</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_038</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_039</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_040</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_041</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_042</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_043</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_044</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_045</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_046</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_047</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_048</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_049</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_050</t>
+  </si>
+  <si>
+    <t>FACEBOOK_ADD_Story_GUI_051</t>
+  </si>
+  <si>
+    <t>Verify adding Text Story backgroud.</t>
+  </si>
+  <si>
+    <t>Verify changing Text Story privacy public</t>
+  </si>
+  <si>
+    <t>Verify changing Text Story privacy Friends</t>
+  </si>
+  <si>
+    <t>Verify changing Text Story privacy Custom</t>
+  </si>
+  <si>
+    <t>Verify commenting on Text story</t>
+  </si>
+  <si>
+    <t>Verify sharing Text story to instagaram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify viewing list of muted stroies </t>
+  </si>
+  <si>
+    <t>verify adding Music story</t>
+  </si>
+  <si>
+    <t>verify adding Green Screen Story</t>
+  </si>
+  <si>
+    <t>verify adding Boomerang Story</t>
+  </si>
+  <si>
+    <t>verify adding video with effects</t>
+  </si>
+  <si>
+    <t>verify selecting multiple photos story</t>
+  </si>
+  <si>
+    <t>Verify selecting multiple videos story</t>
+  </si>
+  <si>
+    <t>Verify that the story can be replied on (emoji only)</t>
+  </si>
+  <si>
+    <t>Verify that a drowing can be added to story</t>
+  </si>
+  <si>
+    <t>Verify that animation can be added to story</t>
+  </si>
+  <si>
+    <t>Verify that music can be added to photo Story</t>
+  </si>
+  <si>
+    <t>Verify tagging Friends in a story</t>
+  </si>
+  <si>
+    <t>Verify Reporting a story</t>
+  </si>
+  <si>
+    <t>Verify Adding multiple Videos in a story</t>
+  </si>
+  <si>
+    <t>Verify Showing top Comments To followers Facebook user</t>
+  </si>
+  <si>
+    <t>Verify Croping photo before sharing a story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify adding photo with text </t>
+  </si>
+  <si>
+    <t>Verify adding photo and music together.</t>
+  </si>
+  <si>
+    <t>1.Tap on Create new Story
+2.Write Story's text
+3.Tap on share Story</t>
+  </si>
+  <si>
+    <t>"Hallo this my first Facebook's story"</t>
+  </si>
+  <si>
+    <t>Story shared Successfully</t>
+  </si>
+  <si>
+    <t>1.Tap on Create new Story
+2.Write Story's text
+3.change Story's Font
+3.Tap on share Story</t>
+  </si>
+  <si>
+    <t>Story shared Successfully with changed Font</t>
+  </si>
+  <si>
+    <t>1.Tap on Create new Story
+2.Write Story's text
+3.Tap backgroun 
+4.Change background
+5.Tap on share Story</t>
+  </si>
+  <si>
+    <t>Story shared Successfully with changed Background</t>
+  </si>
+  <si>
+    <t>1.Tap on Create new Story
+2.Tap on Settings Icon
+3.change privacy to Public
+4.Write Story's text
+5.Tap on share Story</t>
+  </si>
+  <si>
+    <t>1.Tap on Create new Story
+2.Tap on Settings Icon
+3.change privacy to only Friends
+4.Write Story's text
+5.Tap on share Story</t>
+  </si>
+  <si>
+    <t>1.Tap on Create new Story
+2.Tap on Settings Icon
+3.change privacy to custom
+4.Write Story's text
+5.Tap on share Story</t>
+  </si>
+  <si>
+    <t>Story shared Successfully and can see in public way</t>
+  </si>
+  <si>
+    <t>Story shared Successfully and only Friends can see it</t>
+  </si>
+  <si>
+    <t>Story shared Successfully and only selected people can see it</t>
+  </si>
+  <si>
+    <t>1.Tap on Create  Story
+2.Tap on Comment Field 
+3.write comment</t>
+  </si>
+  <si>
+    <t>Comment submited Successfully to Story's owner</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Write Text  to share
+3- Tap on Privacy
+4- Enable Alwayes Share to Instagram
+5- Tap on Share</t>
+  </si>
+  <si>
+    <t>The shared story on Facebook is also shared as a story on Instagram</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap settings icon
+3.Tap Stories you've muted</t>
+  </si>
+  <si>
+    <t>Mute List is Available</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap music Stroy
+3.Search by music</t>
+  </si>
+  <si>
+    <t>"Song name or singer name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story shared Successfully </t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Green screen stroy
+3.Tap share Story</t>
+  </si>
+  <si>
+    <t>Test image</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Boomerang stroy
+3.Tap share Story</t>
+  </si>
+  <si>
+    <t>verify adding photo Story from gallery</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Gallary icon 
+3.Tap share Story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Gallery icon 
+3.Tap share Story</t>
+  </si>
+  <si>
+    <t>Verify adding vedio from gallery</t>
+  </si>
+  <si>
+    <t>verify adding video captured by camera</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Capture image 
+3.Tap share Story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Gallery icon
+3.apply effects
+4.Tap share Story</t>
+  </si>
+  <si>
+    <t>Test vedio</t>
+  </si>
+  <si>
+    <t>multiple photos</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Gallery icon
+3.select multiple videos
+4.Tap share Story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2.Tap Gallery icon
+3.select multiple photos
+4.Tap share Story</t>
+  </si>
+  <si>
+    <t>multiple Vedios</t>
+  </si>
+  <si>
+    <t>1.open story 
+2.Tap emoji icon</t>
+  </si>
+  <si>
+    <t>emoji sent to Story's owner</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Select a photo/video
+4- Tap on Drawing button
+5- Make a drawing
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>A story is shared with drawing added to it</t>
+  </si>
+  <si>
+    <t>A story is shared with animation added to it</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Select a photo/video
+4- Tap on anitmation button
+5- Make a drawing
+6- Tap on Share</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1762,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1415,6 +1813,18 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1433,20 +1843,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1455,7 +1856,35 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F3369482-6A0B-4901-B0D6-F5E5BA13E1FF}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{3537DECF-92FF-43A1-B3E7-52292492EA52}"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1852,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED464E4D-BCBA-41FD-9DCE-BBCDDD011EDF}">
   <dimension ref="A1:A65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1880,289 +2309,289 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" spans="1:1" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="18" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
+      <c r="A47" s="18"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
+      <c r="A48" s="18"/>
     </row>
     <row r="49" spans="1:1" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="18" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2176,9 +2605,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89162061-C779-4BAD-BDCB-CA5D57A1AEB3}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:L11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -2236,50 +2665,50 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="21" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="76.8" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -2528,20 +2957,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="43.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2648,7 +3077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="86.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -3405,20 +3834,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="40.200000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
     <row r="39" spans="1:12" ht="72" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -3439,10 +3868,10 @@
       <c r="F39" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H39" s="22" t="s">
+      <c r="H39" s="6" t="s">
         <v>269</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -3525,7 +3954,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="158.4" outlineLevel="2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>217</v>
       </c>
@@ -3658,7 +4087,7 @@
       <c r="I45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J45" s="23" t="s">
+      <c r="J45" s="17" t="s">
         <v>268</v>
       </c>
       <c r="K45" s="6" t="s">
@@ -3976,7 +4405,7 @@
       <c r="I54" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J54" s="23" t="s">
+      <c r="J54" s="17" t="s">
         <v>268</v>
       </c>
       <c r="K54" s="6" t="s">
@@ -4085,10 +4514,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB0D1B6-9910-43A1-A0D0-6F3CD340DF4D}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4107,7 +4537,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
@@ -4147,63 +4577,63 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-    </row>
-    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>315</v>
@@ -4228,7 +4658,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -4239,7 +4669,7 @@
         <v>96</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>315</v>
@@ -4264,7 +4694,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -4275,7 +4705,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>315</v>
@@ -4300,7 +4730,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -4311,7 +4741,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>315</v>
@@ -4336,7 +4766,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -4347,7 +4777,7 @@
         <v>97</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>315</v>
@@ -4372,7 +4802,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -4383,7 +4813,7 @@
         <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>315</v>
@@ -4408,7 +4838,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -4419,7 +4849,7 @@
         <v>101</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>315</v>
@@ -4444,7 +4874,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -4455,7 +4885,7 @@
         <v>313</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>315</v>
@@ -4481,190 +4911,1315 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="B14" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="B15" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+      <c r="B16" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="B17" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+      <c r="B18" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+      <c r="B19" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="B20" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26" t="s">
+      <c r="B21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26" t="s">
+      <c r="B22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="B23" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="26" t="s">
+      <c r="B24" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="B25" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
+      <c r="B26" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="B27" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
+      <c r="B28" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="B29" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="B30" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+      <c r="B31" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26" t="s">
+      <c r="B32" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26" t="s">
+      <c r="B33" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f t="shared" ref="H33" si="0">_xlfn.CONCAT(G33)</f>
+        <v>A story is shared with drawing added to it</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+      <c r="B34" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f>_xlfn.CONCAT(G34)</f>
+        <v>A story is shared with animation added to it</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+      <c r="B35" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="B36" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
+      <c r="B37" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="B38" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26" t="s">
+      <c r="B39" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="B40" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>325</v>
       </c>
+      <c r="B41" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A43" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+    </row>
+    <row r="44" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>217</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A43:L43"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J10">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J42">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J58">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J44)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4735,50 +6290,50 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -4787,7 +6342,7 @@
       <c r="B5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -5069,20 +6624,20 @@
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/high-level-test-cases-instagram-mobile-app(Test).xlsx
+++ b/high-level-test-cases-instagram-mobile-app(Test).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ComputerScience\SwTesting\mobile_testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0DD949-3024-465D-AD44-D486BD1018DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9935D9FE-E5FE-480A-9BAB-651EA65557A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{9E5D0CAE-EDEC-427C-A438-910C170CD468}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9E5D0CAE-EDEC-427C-A438-910C170CD468}"/>
   </bookViews>
   <sheets>
     <sheet name="requirements analysis sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="674">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -1168,33 +1168,6 @@
     <t>Massaging : GUI Test Cases [Test Suite]</t>
   </si>
   <si>
-    <t>FACEBOOK_AMassaging_GUI_001</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_002</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_003</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_004</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_005</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_006</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_007</t>
-  </si>
-  <si>
-    <t>FACEBOOK_AMassaging_GUI_008</t>
-  </si>
-  <si>
-    <t>FR 2: Massaging</t>
-  </si>
-  <si>
     <t>FACEBOOK_ADD_Story_GUI_009</t>
   </si>
   <si>
@@ -1330,9 +1303,6 @@
     <t>FACEBOOK_ADD_Story_GUI_050</t>
   </si>
   <si>
-    <t>FACEBOOK_ADD_Story_GUI_051</t>
-  </si>
-  <si>
     <t>Verify adding Text Story backgroud.</t>
   </si>
   <si>
@@ -1388,21 +1358,6 @@
   </si>
   <si>
     <t>Verify Reporting a story</t>
-  </si>
-  <si>
-    <t>Verify Adding multiple Videos in a story</t>
-  </si>
-  <si>
-    <t>Verify Showing top Comments To followers Facebook user</t>
-  </si>
-  <si>
-    <t>Verify Croping photo before sharing a story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify adding photo with text </t>
-  </si>
-  <si>
-    <t>Verify adding photo and music together.</t>
   </si>
   <si>
     <t>1.Tap on Create new Story
@@ -1591,6 +1546,934 @@
 4- Tap on anitmation button
 5- Make a drawing
 6- Tap on Share</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Select a photo/video
+4- Tap  Music
+5- Search for music
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>Test image ,song</t>
+  </si>
+  <si>
+    <t>Story shared Successfully with music</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Select a photo/video
+4- Write'@'and select Friends name
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test image </t>
+  </si>
+  <si>
+    <t>1- Open application successfully
+2- Log in with valid username and password
+3- Home Page is opened
+4-have Friends on Facebook</t>
+  </si>
+  <si>
+    <t>Story shared Successfully and friend mentioned</t>
+  </si>
+  <si>
+    <t>1.At the top of your Feed, go to the Stories section and tap to open the story.
+2.Tap to find the photo or video you want to report.
+Click in the top right.
+3.Click Find support or report story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story to report </t>
+  </si>
+  <si>
+    <t>Story reported Successfully</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Tap Select multiple
+4.Tap photo collage
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>Verify Adding multiple Videos in collage story</t>
+  </si>
+  <si>
+    <t>vedios to test</t>
+  </si>
+  <si>
+    <t>Verify adding multiple Videos in saperate storys</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Tap Select multiple
+4.Tap Saperate stories
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story shared Successfully videos in sapetate stories </t>
+  </si>
+  <si>
+    <t>Verify Write Text on story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.select photo
+4.Tap to Text
+5.Write Text
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>test photo + "my first story"</t>
+  </si>
+  <si>
+    <t>Verify adding Stickers to photo.</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.select photo
+4.Tap to stickers
+5.Select sticker
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>test photo + sticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify adding photo with Effects </t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.select photo
+4.Tap to effects
+5.Select effect
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>test photo + effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story shared Successfully with effect on it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story shared Successfully with sticker on it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story shared Successfully with text on it </t>
+  </si>
+  <si>
+    <t>verify adding corrupted photo</t>
+  </si>
+  <si>
+    <t>verify adding high quality photo</t>
+  </si>
+  <si>
+    <t>verify adding low quality photo</t>
+  </si>
+  <si>
+    <t>verify adding corrupted video</t>
+  </si>
+  <si>
+    <t>verify adding large video size</t>
+  </si>
+  <si>
+    <t>verify selecting more than 15 photo</t>
+  </si>
+  <si>
+    <t>Verify adding story with no internet connection</t>
+  </si>
+  <si>
+    <t>Verify adding stickers with no internet connection</t>
+  </si>
+  <si>
+    <t>Verify setting story privacy to friends, an unfriend cannot see the story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify setting story privacy to custom </t>
+  </si>
+  <si>
+    <t>verify using camera when camera permission is denyed</t>
+  </si>
+  <si>
+    <t>Verify using Location ,when location permession is denyed</t>
+  </si>
+  <si>
+    <t>Verify user cannot add or search for GIF while internet connection is lost</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Add corrupted photo
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>Corrupted photo</t>
+  </si>
+  <si>
+    <t>Error massage"uable to share photo"</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Add low resolution photo
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>Low resolution photo</t>
+  </si>
+  <si>
+    <t>High resolution photo</t>
+  </si>
+  <si>
+    <t>Story shard Successfully</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Add high resolution photo
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>Corrupted video</t>
+  </si>
+  <si>
+    <t>Error massage"uable to share video"</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.select multiple photos more than 15
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>test photos</t>
+  </si>
+  <si>
+    <t>Error massage"uable to share more than 15 photo"</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Tap Camera icon
+3.deny camera permission
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>Error massage back to Field of story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Select photo
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>test photo</t>
+  </si>
+  <si>
+    <t>Error massage"no internet connection"</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Select photo
+4.add Stickers
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Select photo
+4.edit privacy to Friends
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>only Friends can see the Story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Add very large video size
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>Error massage"unable to share video"</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Select photo
+4.edit privacy to custom
+4- Tap on Share</t>
+  </si>
+  <si>
+    <t>only selected Friends can see the Story</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Select photo
+4.Tap Location icon
+5.deny location permission
+6- Tap on Share</t>
+  </si>
+  <si>
+    <t>Error massage"cannot access location"</t>
+  </si>
+  <si>
+    <t>1- Tap on Create a new story
+2- Open Gallery
+3.Select photo
+4add stickers
+5- Tap on Share</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_001</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_002</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_003</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_004</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_005</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_006</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_007</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_008</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_009</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_010</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_011</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_012</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_013</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_014</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_015</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_016</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_017</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_018</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_019</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_020</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_021</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_022</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_023</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_024</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_025</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_026</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_027</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_028</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_029</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_030</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_031</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_032</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_033</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_034</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_035</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_036</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_037</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_038</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_039</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_040</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_041</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_042</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_043</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_044</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_045</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_046</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_047</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_048</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_049</t>
+  </si>
+  <si>
+    <t>FACEBOOK_Massaging_GUI_050</t>
+  </si>
+  <si>
+    <t>FR 3: Massaging</t>
+  </si>
+  <si>
+    <t>verify sending massage to Facebook Friends</t>
+  </si>
+  <si>
+    <t>Verify sending massage to other Facebook users</t>
+  </si>
+  <si>
+    <t>verify receiving massage from other Facebook users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify receiving massage from Facebook friend </t>
+  </si>
+  <si>
+    <t>verify sending audio record to Facebook Friend</t>
+  </si>
+  <si>
+    <t>verify sending audio record to other Facebook users</t>
+  </si>
+  <si>
+    <t>verify receiving audio record from Facebook Friend</t>
+  </si>
+  <si>
+    <t>verify receiving audio record from other Facebook users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify attaching photo/video </t>
+  </si>
+  <si>
+    <t>verify sending captured photo by camera</t>
+  </si>
+  <si>
+    <t>verify sending captured video by camera</t>
+  </si>
+  <si>
+    <t>verify sending current locaction to Facebook user</t>
+  </si>
+  <si>
+    <t>verify reacting to massage</t>
+  </si>
+  <si>
+    <t>verify replying to massage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify making voice call </t>
+  </si>
+  <si>
+    <t>verify making voice call in group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify making video call </t>
+  </si>
+  <si>
+    <t>verify making video call in group</t>
+  </si>
+  <si>
+    <t>verify to see Facebook Friend status(online/offline)</t>
+  </si>
+  <si>
+    <t>verify muting Facebook user</t>
+  </si>
+  <si>
+    <t>verify searching in conversatioin</t>
+  </si>
+  <si>
+    <t>verify to muting notificaions&amp;sounds</t>
+  </si>
+  <si>
+    <t>verify blocking Facebook users</t>
+  </si>
+  <si>
+    <t>verify changing chat background theme</t>
+  </si>
+  <si>
+    <t>verify removing massage after sent it</t>
+  </si>
+  <si>
+    <t>verify seeing list  of pervious chats</t>
+  </si>
+  <si>
+    <t>verify marking chat as unread</t>
+  </si>
+  <si>
+    <t>verify archiveing Facebook user</t>
+  </si>
+  <si>
+    <t>verify to see list message requests</t>
+  </si>
+  <si>
+    <t>verify creating Group with Facebook users</t>
+  </si>
+  <si>
+    <t>verify Forward message to Facebook user</t>
+  </si>
+  <si>
+    <t>Massaging : Negative Test Cases [Test Suite]</t>
+  </si>
+  <si>
+    <t>verify sending large audio record to Facebook user</t>
+  </si>
+  <si>
+    <t>verify sending empty message</t>
+  </si>
+  <si>
+    <t>verify sending message with no internet connection</t>
+  </si>
+  <si>
+    <t>verify sending invalid photo size</t>
+  </si>
+  <si>
+    <t>veify sending invalid video size</t>
+  </si>
+  <si>
+    <t>verify making audio call with no internet connection</t>
+  </si>
+  <si>
+    <t>verify making video call with no intenet connection</t>
+  </si>
+  <si>
+    <t>verify sending current location with no internet connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify searching in converstion with no internet connection </t>
+  </si>
+  <si>
+    <t>verify repoting Facebook user with no internet connection</t>
+  </si>
+  <si>
+    <t>verify blocking Facebook users with no internet connection</t>
+  </si>
+  <si>
+    <t>verify logout with no internet connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to the field of massanging
+</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Friend name
+4.write message contant
+5.Tap send</t>
+  </si>
+  <si>
+    <t>"hallo ,this my first messangt !"</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write user name
+4.write message contant
+5.Tap send</t>
+  </si>
+  <si>
+    <t>1.Open messanger</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Friend name
+4.record audio
+5.Tap send</t>
+  </si>
+  <si>
+    <t>test audio record</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.record audio
+5.Tap send</t>
+  </si>
+  <si>
+    <t>1.open messenger 
+2.Tap on Chat</t>
+  </si>
+  <si>
+    <t>Message should be sent successfully and should be visible in their conversation list.</t>
+  </si>
+  <si>
+    <t>Message should be sent successfully and should be visible in their message request</t>
+  </si>
+  <si>
+    <t>message should be should deliverd successfully and should be visible inconversation list</t>
+  </si>
+  <si>
+    <t>message should be should deliverd successfully and should be visible message request</t>
+  </si>
+  <si>
+    <t>Message should be sent successfully and should be visible in in conversation list</t>
+  </si>
+  <si>
+    <t>message should be deliverd successfully and should be visible in conversation list</t>
+  </si>
+  <si>
+    <t>test video/photo</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap on photo icon
+5.select photo/video
+6.Tap send</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap on more 
+5.Tap location
+6.send Current location
+7.Tap send</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>message should be sent successfully and should be visible in conversation list</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Hold on message 
+5.react on message
+6.Tap send</t>
+  </si>
+  <si>
+    <t>react should be appear on message</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.pull message
+5.write on replyed message
+6.Tap send</t>
+  </si>
+  <si>
+    <t>call should ring to other phone and call should start</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.look to active list</t>
+  </si>
+  <si>
+    <t>see Active users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap more
+5.Tap mute
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap video call icon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap voice call icon
+</t>
+  </si>
+  <si>
+    <t>User should be muted</t>
+  </si>
+  <si>
+    <t>user muted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap search icon
+5.write searching content
+</t>
+  </si>
+  <si>
+    <t>"hallo this my first message"</t>
+  </si>
+  <si>
+    <t>message should appear if exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap more
+5.Tap mute notifications
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap more
+5.tap Block
+</t>
+  </si>
+  <si>
+    <t>User should be blocked</t>
+  </si>
+  <si>
+    <t>user should be blocked</t>
+  </si>
+  <si>
+    <t>user should be muted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap more
+5.tap theme
+6.pick background
+</t>
+  </si>
+  <si>
+    <t>background should be changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.write message content
+5.tap sent
+6.Tap on the message
+7.Tap unsend massage
+</t>
+  </si>
+  <si>
+    <t>Message should be deleted</t>
+  </si>
+  <si>
+    <t>1.open messager</t>
+  </si>
+  <si>
+    <t>by defulte massenger should be show previous chats</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.open chat
+3.back and Tap Chat
+4.Tap unread message</t>
+  </si>
+  <si>
+    <t>chat should be marked as unread</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Chat 
+3.Tap archive
+4.Tap unread message</t>
+  </si>
+  <si>
+    <t>chat should be archived</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap ! Icon
+3.Tap message requests</t>
+  </si>
+  <si>
+    <t>message requests should be opened</t>
+  </si>
+  <si>
+    <t>1.open messager 
+2.open chat
+3.Tap message
+4.Tap Forward</t>
+  </si>
+  <si>
+    <t>message should be forward</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.From Home Tap .
+3.Tap Create new Group</t>
+  </si>
+  <si>
+    <t>new Group should be Created</t>
+  </si>
+  <si>
+    <t>Message should be sent successfully and should be visible in conversation list</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+5.Tap send</t>
+  </si>
+  <si>
+    <t>Sending button should be disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Open the Facebook mobile application
+2- Login
+3- Click on the Messenger icon                                                                                            
+4- Click on "New Message" icon                              5-Write Name of facebook user                                                 6-Try to send message              </t>
+  </si>
+  <si>
+    <t>Message Unsent</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Facebook user name
+4.Tap on photo icon
+5.select unvalid photo size
+6.Tap send</t>
+  </si>
+  <si>
+    <t>message should be not sent  +Error message"photo cant send"</t>
+  </si>
+  <si>
+    <t>message should be not sent  +Error message"video cant send"</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Friend name
+4.Tap audio call icon
+5.Tap send</t>
+  </si>
+  <si>
+    <t>The call shouldn’t be started</t>
+  </si>
+  <si>
+    <t>test video record</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Friend name
+4.Tap video call icon
+5.Tap send</t>
+  </si>
+  <si>
+    <t>The message shouldn’t be sent</t>
+  </si>
+  <si>
+    <t>current location</t>
+  </si>
+  <si>
+    <t>1.open messanger
+2.Tap Search icon 
+3.write Friend name
+4.Tap more 
+5.Tap location
+5.Tap send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open messanger
+2.Tap Search icon 
+3.write Friend name
+4.Tap search icon
+5.write content to search
+</t>
+  </si>
+  <si>
+    <t>No result</t>
+  </si>
+  <si>
+    <t>From Chats, tap a conversation to open it.
+Tap the person's name at the top.
+Scroll down and tap Report.
+Select a category to help us understand what's wrong.
+Tap SUBMIT REPORT.</t>
+  </si>
+  <si>
+    <t>From Chats, open the conversation with the person you want to block.
+Tap their name at the top of the conversation.
+Scroll down and tap Block.
+Tap Block.</t>
+  </si>
+  <si>
+    <t>From Chats, tap on your profile photo in the corner.
+Tap Privacy and then tap Logins.
+Tap on the device you want to log out on.
+Tap Log Out.</t>
   </si>
 </sst>
 </file>
@@ -1762,7 +2645,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1843,11 +2726,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1856,7 +2742,21 @@
     <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F3369482-6A0B-4901-B0D6-F5E5BA13E1FF}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{3537DECF-92FF-43A1-B3E7-52292492EA52}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4516,12 +5416,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB0D1B6-9910-43A1-A0D0-6F3CD340DF4D}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -4606,7 +5506,7 @@
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>311</v>
       </c>
@@ -4622,7 +5522,7 @@
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
     </row>
-    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4658,7 +5558,7 @@
       </c>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -4694,7 +5594,7 @@
       </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -4730,7 +5630,7 @@
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -4766,7 +5666,7 @@
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -4802,7 +5702,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -4838,7 +5738,7 @@
       </c>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>70</v>
       </c>
@@ -4874,7 +5774,7 @@
       </c>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -4910,7 +5810,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
         <v>316</v>
       </c>
@@ -4926,30 +5826,30 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>365</v>
+        <v>328</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>409</v>
+      <c r="E14" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>76</v>
@@ -4961,30 +5861,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>366</v>
+        <v>329</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>411</v>
+      <c r="E15" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>396</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>76</v>
@@ -4996,30 +5896,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>383</v>
+        <v>330</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>373</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>413</v>
+      <c r="E16" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>398</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>76</v>
@@ -5031,30 +5931,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>384</v>
+        <v>331</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>417</v>
+      <c r="E17" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>402</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>76</v>
@@ -5066,30 +5966,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>385</v>
+        <v>332</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>418</v>
+      <c r="E18" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>76</v>
@@ -5101,30 +6001,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="144" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>386</v>
+        <v>333</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>419</v>
+      <c r="E19" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>76</v>
@@ -5136,30 +6036,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>387</v>
+        <v>334</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>421</v>
+      <c r="G20" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>76</v>
@@ -5171,30 +6071,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>388</v>
+        <v>335</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F21" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="H21" s="6" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>76</v>
@@ -5206,30 +6106,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>389</v>
+        <v>336</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="F22" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>95</v>
@@ -5241,30 +6141,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>390</v>
+        <v>337</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>428</v>
+        <v>411</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>76</v>
@@ -5276,30 +6176,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>391</v>
+        <v>338</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>381</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>76</v>
@@ -5311,30 +6211,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>392</v>
+        <v>339</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>428</v>
+        <v>416</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>76</v>
@@ -5346,30 +6246,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>432</v>
+        <v>340</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>428</v>
+        <v>418</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>76</v>
@@ -5381,30 +6281,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>435</v>
+        <v>341</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>428</v>
+        <v>419</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>76</v>
@@ -5416,30 +6316,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>436</v>
+        <v>342</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>421</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>428</v>
+        <v>422</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>76</v>
@@ -5451,30 +6351,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>393</v>
+        <v>343</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>428</v>
+        <v>423</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>76</v>
@@ -5486,30 +6386,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>394</v>
+        <v>344</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>76</v>
@@ -5521,30 +6421,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>395</v>
+        <v>345</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="G31" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="H31" s="26" t="s">
-        <v>428</v>
+      <c r="G31" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>413</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>76</v>
@@ -5556,30 +6456,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F32" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>445</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>445</v>
+      <c r="G32" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>430</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>76</v>
@@ -5591,25 +6491,27 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>431</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G33" s="6" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="H33" s="6" t="str">
         <f t="shared" ref="H33" si="0">_xlfn.CONCAT(G33)</f>
@@ -5625,25 +6527,27 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>219</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="F34" s="6"/>
+        <v>434</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="G34" s="6" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="H34" s="6" t="str">
         <f>_xlfn.CONCAT(G34)</f>
@@ -5659,19 +6563,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E35" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>437</v>
+      </c>
       <c r="I35" s="6" t="s">
         <v>76</v>
       </c>
@@ -5682,18 +6598,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="129.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>219</v>
+        <v>440</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>76</v>
@@ -5705,19 +6633,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="201.6" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E37" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="I37" s="6" t="s">
         <v>76</v>
       </c>
@@ -5728,19 +6668,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E38" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>413</v>
+      </c>
       <c r="I38" s="6" t="s">
         <v>76</v>
       </c>
@@ -5751,19 +6703,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="115.2" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E39" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="I39" s="6" t="s">
         <v>76</v>
       </c>
@@ -5774,19 +6738,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E40" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="I40" s="6" t="s">
         <v>76</v>
       </c>
@@ -5797,19 +6773,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E41" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="I41" s="6" t="s">
         <v>76</v>
       </c>
@@ -5820,19 +6808,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="100.8" outlineLevel="2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>325</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E42" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="I42" s="6" t="s">
         <v>76</v>
       </c>
@@ -5843,9 +6843,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="21" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="21" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -5859,16 +6859,31 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:12" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>368</v>
+        <v>360</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>463</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E44" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>478</v>
+      </c>
       <c r="I44" s="6" t="s">
         <v>76</v>
       </c>
@@ -5879,16 +6894,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:12" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>369</v>
+        <v>361</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>464</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E45" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>482</v>
+      </c>
       <c r="I45" s="6" t="s">
         <v>76</v>
       </c>
@@ -5899,16 +6929,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:12" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>370</v>
+        <v>362</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>465</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E46" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>394</v>
+      </c>
       <c r="I46" s="6" t="s">
         <v>76</v>
       </c>
@@ -5919,16 +6964,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:12" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>371</v>
+        <v>363</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>466</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E47" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>485</v>
+      </c>
       <c r="I47" s="6" t="s">
         <v>76</v>
       </c>
@@ -5939,16 +6999,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="27" t="s">
+    <row r="48" spans="1:12" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>372</v>
+        <v>364</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>467</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E48" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>498</v>
+      </c>
       <c r="I48" s="6" t="s">
         <v>76</v>
       </c>
@@ -5959,16 +7034,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="27" t="s">
+    <row r="49" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>373</v>
+        <v>365</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>468</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E49" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>488</v>
+      </c>
       <c r="I49" s="6" t="s">
         <v>76</v>
       </c>
@@ -5979,16 +7069,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="27" t="s">
+    <row r="50" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>374</v>
+        <v>366</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>473</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E50" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>490</v>
+      </c>
       <c r="I50" s="6" t="s">
         <v>76</v>
       </c>
@@ -5999,16 +7104,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="27" t="s">
+    <row r="51" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>375</v>
+        <v>367</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>469</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E51" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>493</v>
+      </c>
       <c r="I51" s="6" t="s">
         <v>76</v>
       </c>
@@ -6019,16 +7139,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>376</v>
+        <v>368</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>470</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E52" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>493</v>
+      </c>
       <c r="I52" s="6" t="s">
         <v>76</v>
       </c>
@@ -6039,16 +7174,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="27" t="s">
+    <row r="53" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>377</v>
+        <v>369</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>471</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E53" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>496</v>
+      </c>
       <c r="I53" s="6" t="s">
         <v>76</v>
       </c>
@@ -6059,16 +7209,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>378</v>
+        <v>370</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>472</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E54" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>500</v>
+      </c>
       <c r="I54" s="6" t="s">
         <v>76</v>
       </c>
@@ -6079,16 +7244,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="27" t="s">
+    <row r="55" spans="1:11" ht="129.6" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>379</v>
+        <v>371</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>474</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E55" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>502</v>
+      </c>
       <c r="I55" s="6" t="s">
         <v>76</v>
       </c>
@@ -6099,16 +7279,31 @@
         <v>312</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="27" t="s">
+    <row r="56" spans="1:11" ht="100.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>380</v>
+        <v>372</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>475</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>219</v>
       </c>
+      <c r="E56" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>493</v>
+      </c>
       <c r="I56" s="6" t="s">
         <v>76</v>
       </c>
@@ -6119,60 +7314,30 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>312</v>
-      </c>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="27" t="s">
-        <v>217</v>
-      </c>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="27" t="s">
-        <v>217</v>
-      </c>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="27" t="s">
-        <v>217</v>
-      </c>
+      <c r="A61" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6183,42 +7348,42 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J10">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J42">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:J58">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J44)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6229,10 +7394,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1454189A-B487-4D9F-B6F2-C3652E5B3573}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6251,7 +7417,7 @@
     <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>57</v>
       </c>
@@ -6340,7 +7506,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>328</v>
+        <v>504</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>78</v>
@@ -6349,7 +7515,7 @@
         <v>73</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>75</v>
@@ -6367,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L5" s="5"/>
     </row>
@@ -6376,7 +7542,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>329</v>
+        <v>505</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>96</v>
@@ -6385,7 +7551,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>71</v>
@@ -6403,7 +7569,7 @@
         <v>77</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L6" s="5"/>
     </row>
@@ -6412,7 +7578,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>330</v>
+        <v>506</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>91</v>
@@ -6421,7 +7587,7 @@
         <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>71</v>
@@ -6439,7 +7605,7 @@
         <v>77</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L7" s="5"/>
     </row>
@@ -6448,7 +7614,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>331</v>
+        <v>507</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>93</v>
@@ -6457,7 +7623,7 @@
         <v>73</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>71</v>
@@ -6475,7 +7641,7 @@
         <v>77</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L8" s="5"/>
     </row>
@@ -6484,7 +7650,7 @@
         <v>70</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>332</v>
+        <v>508</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>97</v>
@@ -6493,7 +7659,7 @@
         <v>73</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>71</v>
@@ -6511,7 +7677,7 @@
         <v>77</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L9" s="5"/>
     </row>
@@ -6520,7 +7686,7 @@
         <v>70</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>333</v>
+        <v>509</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>99</v>
@@ -6529,7 +7695,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>71</v>
@@ -6547,7 +7713,7 @@
         <v>77</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L10" s="5"/>
     </row>
@@ -6556,7 +7722,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>334</v>
+        <v>510</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>101</v>
@@ -6565,7 +7731,7 @@
         <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>71</v>
@@ -6583,7 +7749,7 @@
         <v>77</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L11" s="5"/>
     </row>
@@ -6592,7 +7758,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>335</v>
+        <v>511</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>313</v>
@@ -6601,7 +7767,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>315</v>
+        <v>599</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>75</v>
@@ -6619,7 +7785,7 @@
         <v>77</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>336</v>
+        <v>554</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -6639,35 +7805,1601 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
+    <row r="14" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>608</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+      <c r="A45" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+    </row>
+    <row r="46" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="H48" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H52" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="H53" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A45:L45"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J10">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:J7">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",J5)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J44 J46:J57">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",J14)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J5)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Pass",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
